--- a/DATA_goal/Junction_Flooding_272.xlsx
+++ b/DATA_goal/Junction_Flooding_272.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41704.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>12.34</v>
+        <v>1.23</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.24</v>
+        <v>0.82</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>26.72</v>
+        <v>2.67</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>19.8</v>
+        <v>1.98</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>9.41</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>27.82</v>
+        <v>2.78</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.95</v>
+        <v>0.6</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>8.67</v>
+        <v>0.87</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.52</v>
+        <v>1.05</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>11.37</v>
+        <v>1.14</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.83</v>
+        <v>0.88</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.74</v>
+        <v>0.27</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>141.4</v>
+        <v>14.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>27.01</v>
+        <v>2.7</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>17.24</v>
+        <v>1.72</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.65</v>
+        <v>0.26</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>15.25</v>
+        <v>1.53</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.4</v>
+        <v>0.74</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>8.52</v>
+        <v>0.85</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.86</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>25.23</v>
+        <v>2.52</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.73</v>
+        <v>0.47</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41704.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.75</v>
+        <v>1.28</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>27.94</v>
+        <v>2.79</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>21.9</v>
+        <v>2.19</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>37.75</v>
+        <v>3.78</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.59</v>
+        <v>1.56</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.65</v>
+        <v>0.66</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.15</v>
+        <v>1.12</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.98</v>
+        <v>1.2</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.24</v>
+        <v>0.32</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.11</v>
+        <v>1.41</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.34</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>146.04</v>
+        <v>14.6</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>28.18</v>
+        <v>2.82</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>18.51</v>
+        <v>1.85</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.65</v>
+        <v>0.96</v>
       </c>
       <c r="Y3" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Z3" s="4" t="n">
         <v>1.89</v>
       </c>
-      <c r="Z3" s="4" t="n">
-        <v>18.92</v>
-      </c>
       <c r="AA3" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.47</v>
+        <v>0.75</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.67</v>
+        <v>1.17</v>
       </c>
       <c r="AE3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AH3" s="4" t="n">
         <v>1.16</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>34.74</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="AH3" s="4" t="n">
-        <v>11.63</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41704.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.9</v>
+        <v>0.29</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T4" s="4" t="n">
         <v>0.88</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>8.83</v>
-      </c>
       <c r="U4" s="4" t="n">
-        <v>3.43</v>
+        <v>0.34</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41704.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.47</v>
-      </c>
       <c r="J5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q5" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="R5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="S5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AB5" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.37</v>
-      </c>
       <c r="AC5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41704.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>4.82</v>
+        <v>0.48</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I6" s="4" t="n">
         <v>0.59</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.93</v>
-      </c>
       <c r="J6" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>3.73</v>
+        <v>0.37</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>4.05</v>
+        <v>0.4</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>4.42</v>
+        <v>0.44</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>3.83</v>
+        <v>0.38</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>3.39</v>
+        <v>0.34</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>51.5</v>
+        <v>5.15</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>10.47</v>
+        <v>1.05</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>6.77</v>
+        <v>0.68</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>3.63</v>
+        <v>0.36</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>5.88</v>
+        <v>0.59</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>3.12</v>
+        <v>0.31</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>2.86</v>
+        <v>0.29</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>3.35</v>
+        <v>0.33</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>4.47</v>
+        <v>0.45</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>4.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="7">
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="I7" s="4" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="V7" s="4" t="n">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="AA7" s="4" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="AG7" s="4" t="n">
         <v>0</v>
@@ -1279,103 +1279,103 @@
         <v>41704.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB8" s="4" t="n">
         <v>0.17</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>29.82</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.69</v>
-      </c>
       <c r="AC8" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>2.8</v>
+        <v>0.28</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>6.14</v>
+        <v>0.61</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>2.72</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41704.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>8.15</v>
+        <v>0.82</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="D9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG9" s="4" t="n">
         <v>0.34</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>21.18</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>90.23999999999999</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>17.48</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>3.38</v>
-      </c>
       <c r="AH9" s="4" t="n">
-        <v>7.33</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41704.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>20.74</v>
+        <v>2.07</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>15.57</v>
+        <v>1.56</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>45.24</v>
+        <v>4.52</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>37.63</v>
+        <v>3.76</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>16.71</v>
+        <v>1.67</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>59.42</v>
+        <v>5.94</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>25.1</v>
+        <v>2.51</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>16.9</v>
+        <v>1.69</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>18.22</v>
+        <v>1.82</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>19.33</v>
+        <v>1.93</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>16.22</v>
+        <v>1.62</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>23.14</v>
+        <v>2.31</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>13.45</v>
+        <v>1.35</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>240.1</v>
+        <v>24.01</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>45.14</v>
+        <v>4.51</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>30.49</v>
+        <v>3.05</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>16.14</v>
+        <v>1.61</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>29.52</v>
+        <v>2.95</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>13.24</v>
+        <v>1.32</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>11.61</v>
+        <v>1.16</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>13.7</v>
+        <v>1.37</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>19.03</v>
+        <v>1.9</v>
       </c>
       <c r="AE10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>53.88</v>
+        <v>5.39</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>18.7</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_272.xlsx
+++ b/DATA_goal/Junction_Flooding_272.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44953.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.11</v>
+        <v>21.14</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.09</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.45</v>
+        <v>44.47</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.66</v>
+        <v>36.59</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.66</v>
+        <v>16.64</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.42</v>
+        <v>54.16</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.56</v>
+        <v>25.6</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.08</v>
+        <v>10.79</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.66</v>
+        <v>16.57</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.66</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.45</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.65</v>
+        <v>16.54</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.32</v>
+        <v>23.19</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.97</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>24.44</v>
+        <v>244.44</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.6</v>
+        <v>46.03</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.53</v>
+        <v>15.27</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.04</v>
+        <v>30.4</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.58</v>
+        <v>15.79</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.69</v>
+        <v>26.88</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.35</v>
+        <v>13.49</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.18</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.25</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.82</v>
+        <v>18.23</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.79</v>
+        <v>47.88</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.43</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.91</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44953.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.97</v>
+        <v>19.7</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.1</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.23</v>
+        <v>42.26</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.48</v>
+        <v>34.84</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.55</v>
+        <v>15.5</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6</v>
+        <v>59.98</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.39</v>
+        <v>23.85</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.39</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.59</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.7</v>
+        <v>17.01</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.78</v>
+        <v>17.8</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.5</v>
+        <v>4.95</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.18</v>
+        <v>21.8</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.31</v>
+        <v>13.13</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.17</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>22.73</v>
+        <v>227.31</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.31</v>
+        <v>43.13</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.23</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.87</v>
+        <v>28.73</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.21</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.35</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.89</v>
+        <v>28.92</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.3</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.25</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.77</v>
+        <v>17.75</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.44</v>
+        <v>54.41</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.92</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.78</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44953.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.31</v>
+        <v>23.06</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.98</v>
+        <v>49.8</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.11</v>
+        <v>41.08</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.81</v>
+        <v>18.15</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.03</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.79</v>
+        <v>27.92</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.33</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.84</v>
+        <v>18.41</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.01</v>
+        <v>20.07</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.11</v>
+        <v>21.07</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.8</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.8</v>
+        <v>18.05</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.56</v>
+        <v>25.64</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.52</v>
+        <v>15.25</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>26.74</v>
+        <v>267.37</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.05</v>
+        <v>50.47</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.66</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.38</v>
+        <v>33.84</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.79</v>
+        <v>17.91</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.4</v>
+        <v>33.97</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.71</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.1</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.39</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.1</v>
+        <v>21.01</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.38</v>
+        <v>63.76</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.35</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.08</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44953.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.11</v>
+        <v>21.14</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.54</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.57</v>
+        <v>45.72</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.77</v>
+        <v>37.71</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.66</v>
+        <v>16.64</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.56</v>
+        <v>65.59</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.56</v>
+        <v>25.6</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.35</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.91</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.84</v>
+        <v>18.43</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.94</v>
+        <v>19.36</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.65</v>
+        <v>16.54</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.35</v>
+        <v>23.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.4</v>
+        <v>13.95</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.85</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>24.45</v>
+        <v>244.48</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.63</v>
+        <v>46.29</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.27</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.11</v>
+        <v>31.08</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.64</v>
+        <v>16.45</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.39</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.15</v>
+        <v>31.52</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.49</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.98</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.41</v>
+        <v>14.08</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.93</v>
+        <v>19.31</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.95</v>
+        <v>59.49</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.91</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_272.xlsx
+++ b/DATA_goal/Junction_Flooding_272.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,100 +655,100 @@
         <v>44953.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.14</v>
+        <v>21.139</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.41</v>
+        <v>14.405</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.09</v>
+        <v>4.093</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>44.47</v>
+        <v>44.473</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>36.59</v>
+        <v>36.592</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>16.64</v>
+        <v>16.635</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>54.16</v>
+        <v>54.157</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>25.6</v>
+        <v>25.596</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.79</v>
+        <v>10.793</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>16.57</v>
+        <v>16.568</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>17.66</v>
+        <v>17.656</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.45</v>
+        <v>18.451</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.31</v>
+        <v>5.311</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.54</v>
+        <v>16.542</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23.19</v>
+        <v>23.194</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.97</v>
+        <v>13.966</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.73</v>
+        <v>3.726</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.45</v>
+        <v>2.455</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>244.44</v>
+        <v>244.445</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>46.03</v>
+        <v>46.035</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.27</v>
+        <v>15.269</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>30.4</v>
+        <v>30.403</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15.79</v>
+        <v>15.788</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.61</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>26.88</v>
+        <v>26.878</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.49</v>
+        <v>13.487</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.18</v>
+        <v>12.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.25</v>
+        <v>14.251</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.23</v>
+        <v>18.232</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>47.88</v>
+        <v>47.882</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.43</v>
+        <v>8.427</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>19.09</v>
@@ -759,103 +759,103 @@
         <v>44953.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>19.7</v>
+        <v>19.697</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.1</v>
+        <v>14.098</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.92</v>
+        <v>1.918</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>42.26</v>
+        <v>42.259</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>34.84</v>
+        <v>34.838</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15.5</v>
+        <v>15.502</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>59.98</v>
+        <v>59.985</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>23.85</v>
+        <v>23.851</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.39</v>
+        <v>10.389</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.59</v>
+        <v>15.585</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>17.01</v>
+        <v>17.014</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>17.8</v>
+        <v>17.804</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.95</v>
+        <v>4.952</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.41</v>
+        <v>15.414</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>21.8</v>
+        <v>21.801</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.13</v>
+        <v>13.132</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.64</v>
+        <v>1.636</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.17</v>
+        <v>1.172</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>227.31</v>
+        <v>227.313</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>43.13</v>
+        <v>43.132</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.23</v>
+        <v>14.228</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>28.73</v>
+        <v>28.725</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>15.21</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.35</v>
+        <v>2.347</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>28.92</v>
+        <v>28.915</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.57</v>
+        <v>12.568</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.3</v>
+        <v>11.297</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.25</v>
+        <v>13.245</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.75</v>
+        <v>17.747</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>54.41</v>
+        <v>54.409</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.92</v>
+        <v>7.917</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>17.79</v>
+        <v>17.789</v>
       </c>
     </row>
     <row r="4">
@@ -866,100 +866,100 @@
         <v>23.06</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>16.87</v>
+        <v>16.867</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.54</v>
+        <v>1.543</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>49.8</v>
+        <v>49.798</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>41.08</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.15</v>
+        <v>18.147</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>70.34999999999999</v>
+        <v>70.34699999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>27.92</v>
+        <v>27.923</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.33</v>
+        <v>12.333</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.41</v>
+        <v>18.412</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20.07</v>
+        <v>20.067</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>21.07</v>
+        <v>21.069</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.8</v>
+        <v>5.797</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.05</v>
+        <v>18.046</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>25.64</v>
+        <v>25.638</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.25</v>
+        <v>15.249</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.13</v>
+        <v>1.131</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.02</v>
+        <v>1.015</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>267.37</v>
+        <v>267.373</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>50.47</v>
+        <v>50.473</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>16.66</v>
+        <v>16.657</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>33.84</v>
+        <v>33.839</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>17.91</v>
+        <v>17.912</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.63</v>
+        <v>2.625</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>33.97</v>
+        <v>33.968</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.71</v>
+        <v>14.713</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.1</v>
+        <v>13.102</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.39</v>
+        <v>15.387</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.01</v>
+        <v>21.006</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>63.76</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.35</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>20.82</v>
+        <v>20.825</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>19.09</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44953.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.46</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_272.xlsx
+++ b/DATA_goal/Junction_Flooding_272.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44953.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.14</v>
+        <v>21.139</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.54</v>
+        <v>15.541</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.26</v>
+        <v>1.263</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>45.72</v>
+        <v>45.723</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>37.71</v>
+        <v>37.713</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.64</v>
+        <v>16.636</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>65.59</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>25.6</v>
+        <v>25.596</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.35</v>
+        <v>11.346</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.91</v>
+        <v>16.908</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>18.43</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.36</v>
+        <v>19.365</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.31</v>
+        <v>5.314</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.54</v>
+        <v>16.542</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>23.53</v>
+        <v>23.532</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.95</v>
+        <v>13.951</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.868</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.85</v>
+        <v>0.853</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>244.48</v>
+        <v>244.484</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>46.29</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.27</v>
+        <v>15.269</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>31.08</v>
+        <v>31.082</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>16.45</v>
+        <v>16.447</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.39</v>
+        <v>2.385</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>31.52</v>
+        <v>31.524</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.49</v>
+        <v>13.487</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.98</v>
+        <v>11.982</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.08</v>
+        <v>14.077</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>19.31</v>
+        <v>19.307</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>59.49</v>
+        <v>59.486</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.59</v>
+        <v>8.585000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.09</v>
+        <v>19.091</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44953.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_272.xlsx
+++ b/DATA_goal/Junction_Flooding_272.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44953.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.139</v>
+        <v>21.14</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.541</v>
+        <v>15.54</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.263</v>
+        <v>1.26</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>45.723</v>
+        <v>45.72</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>37.713</v>
+        <v>37.71</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.636</v>
+        <v>16.64</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>65.59</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>25.596</v>
+        <v>25.6</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.346</v>
+        <v>11.35</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.908</v>
+        <v>16.91</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>18.43</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.365</v>
+        <v>19.36</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.314</v>
+        <v>5.31</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.542</v>
+        <v>16.54</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>23.532</v>
+        <v>23.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.951</v>
+        <v>13.95</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.868</v>
+        <v>0.87</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.853</v>
+        <v>0.85</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>244.484</v>
+        <v>244.48</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>46.29</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.269</v>
+        <v>15.27</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>31.082</v>
+        <v>31.08</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>16.447</v>
+        <v>16.45</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.385</v>
+        <v>2.39</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>31.524</v>
+        <v>31.52</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.487</v>
+        <v>13.49</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.982</v>
+        <v>11.98</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.077</v>
+        <v>14.08</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>19.307</v>
+        <v>19.31</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>59.486</v>
+        <v>59.49</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.585000000000001</v>
+        <v>8.59</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.091</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44953.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.46</v>
+        <v>19.09</v>
       </c>
     </row>
   </sheetData>
